--- a/expimp/workgroup.xlsx
+++ b/expimp/workgroup.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>b87c0a90-7b85-4fc7-a529-797b9f4c3ea7</t>
+          <t>4cfa1849-27e4-433d-b417-323d374a51c3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>fed70605-e69e-4462-a1d5-8a10b47c2991</t>
+          <t>6a60fb0b-6216-4615-a56f-fed640ec0974</t>
         </is>
       </c>
     </row>
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>b87c0a90-7b85-4fc7-a529-797b9f4c3ea7</t>
+          <t>4cfa1849-27e4-433d-b417-323d374a51c3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7e45138e-9522-4860-9301-b56d43cc2c0b</t>
+          <t>668f1945-4118-4db1-a35e-9aad87325682</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>fffc1a6a-ea63-4173-92cc-af5a61b343ed</t>
+          <t>d2c37410-178e-4b05-81e3-c1183c937452</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>dfdd5762-c4e0-4dbd-9875-040b33581a70</t>
+          <t>ebf4b2a0-7f6d-4adc-a72d-b5492ed6fda3</t>
         </is>
       </c>
     </row>
@@ -497,12 +497,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>fffc1a6a-ea63-4173-92cc-af5a61b343ed</t>
+          <t>d2c37410-178e-4b05-81e3-c1183c937452</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>e19c0f37-49e8-4ad4-a87c-1da1e74f02e1</t>
+          <t>e25df6c3-a480-4cfa-966c-d6e695645efd</t>
         </is>
       </c>
     </row>
